--- a/excels/lua_items.xlsx
+++ b/excels/lua_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\dota-ts-template\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\x-template\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74828109-B78E-4938-8C36-3742B80AE65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65CBCA3-B1FE-41F6-9DFE-838E74F937AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="23254" windowHeight="12724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,50 +94,10 @@
     <t>AbilityManaCost</t>
   </si>
   <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item_kv_generator_test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 1 2 3 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AbilitySpecial[{]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,19 +214,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果没有前缀的会自动生成为var_01这样的格式，var_type kv生成器会自行判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time1 1 2 3 4</t>
+    <t>AbilityValues[{]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>items/item_kv_generator_test.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,18 +578,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -621,65 +602,62 @@
       <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
       <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s">
-        <v>56</v>
-      </c>
       <c r="T1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="V1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="W1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="X1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="Z1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AA1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AB1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="AC1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AD1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="AE1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AF1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -690,61 +668,61 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
         <v>16</v>
@@ -774,71 +752,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W3">
         <v>2</v>
       </c>
       <c r="X3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>20</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
-      </c>
-      <c r="X4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lua_items.xlsx
+++ b/excels/lua_items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\x-template\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65CBCA3-B1FE-41F6-9DFE-838E74F937AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30642E36-EA16-426D-B1C1-0F4A3DF240C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="23254" windowHeight="12724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,10 +249,6 @@
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>items/item_kv_generator_test.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -581,7 +577,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
@@ -759,9 +755,6 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
       <c r="E3" t="s">
         <v>49</v>
       </c>

--- a/excels/lua_items.xlsx
+++ b/excels/lua_items.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\x-template\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30642E36-EA16-426D-B1C1-0F4A3DF240C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB21A218-FFF5-4FAB-8EF6-9ADCD3797063}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="23254" windowHeight="12724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="items_list_1" sheetId="1" r:id="rId1"/>
+    <sheet name="items_list_2" sheetId="2" r:id="rId2"/>
+    <sheet name="__items_bak" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="62">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +96,6 @@
     <t>AbilityManaCost</t>
   </si>
   <si>
-    <t>item_kv_generator_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 1 2 3 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,6 +247,18 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>item_kv_generator_test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_kv_generator_test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_kv_generator_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -577,7 +587,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
@@ -599,55 +609,55 @@
         <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>45</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>46</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>47</v>
       </c>
-      <c r="V1" t="s">
-        <v>48</v>
-      </c>
       <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>31</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>32</v>
       </c>
       <c r="AF1" t="s">
         <v>15</v>
@@ -664,61 +674,61 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="W2" t="s">
         <v>16</v>
@@ -750,28 +760,28 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
       </c>
       <c r="W3">
         <v>2</v>
       </c>
       <c r="X3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" t="s">
         <v>22</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -779,4 +789,422 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6135C4B-658D-4965-B622-DD21BC62707C}">
+  <dimension ref="A1:AF3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6CE3D0-F4FD-4834-9416-2270FAB156DA}">
+  <dimension ref="A1:AF3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>